--- a/config_7.13/shoping_config_xiaomi.xlsx
+++ b/config_7.13/shoping_config_xiaomi.xlsx
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5451" uniqueCount="1868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5451" uniqueCount="1869">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -5911,6 +5911,9 @@
   </si>
   <si>
     <t>消暑礼包</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_qdlb_cjq_cjj",</t>
   </si>
   <si>
     <t>抽奖礼包</t>
@@ -6830,9 +6833,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -6867,16 +6870,52 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6890,22 +6929,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6928,14 +6954,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6950,40 +6969,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6996,8 +6985,15 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7005,7 +7001,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7103,7 +7106,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7115,145 +7256,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7293,24 +7296,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -7326,22 +7311,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7361,6 +7341,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -7376,17 +7365,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7398,10 +7401,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7410,133 +7413,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10298,11 +10301,11 @@
   <dimension ref="A1:AIG694"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H647" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="R665" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H$1:H$1048576"/>
+      <selection pane="bottomRight" activeCell="S687" sqref="S687"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -31817,7 +31820,6 @@
       <c r="G342" s="30" t="s">
         <v>979</v>
       </c>
-      <c r="H342" s="30"/>
       <c r="K342" s="21" t="s">
         <v>980</v>
       </c>
@@ -31889,7 +31891,6 @@
       <c r="G343" s="30" t="s">
         <v>983</v>
       </c>
-      <c r="H343" s="30"/>
       <c r="K343" s="21" t="s">
         <v>984</v>
       </c>
@@ -31961,7 +31962,6 @@
       <c r="G344" s="30" t="s">
         <v>987</v>
       </c>
-      <c r="H344" s="30"/>
       <c r="K344" s="21" t="s">
         <v>988</v>
       </c>
@@ -32033,7 +32033,6 @@
       <c r="G345" s="30" t="s">
         <v>991</v>
       </c>
-      <c r="H345" s="30"/>
       <c r="K345" s="21" t="s">
         <v>992</v>
       </c>
@@ -32105,7 +32104,6 @@
       <c r="G346" s="30" t="s">
         <v>995</v>
       </c>
-      <c r="H346" s="30"/>
       <c r="K346" s="21" t="s">
         <v>996</v>
       </c>
@@ -32177,7 +32175,6 @@
       <c r="G347" s="30" t="s">
         <v>999</v>
       </c>
-      <c r="H347" s="30"/>
       <c r="K347" s="21" t="s">
         <v>1000</v>
       </c>
@@ -32249,7 +32246,6 @@
       <c r="G348" s="30" t="s">
         <v>1003</v>
       </c>
-      <c r="H348" s="30"/>
       <c r="K348" s="21" t="s">
         <v>1004</v>
       </c>
@@ -32321,7 +32317,6 @@
       <c r="G349" s="30" t="s">
         <v>1007</v>
       </c>
-      <c r="H349" s="30"/>
       <c r="K349" s="21" t="s">
         <v>1008</v>
       </c>
@@ -32393,7 +32388,6 @@
       <c r="G350" s="30" t="s">
         <v>1011</v>
       </c>
-      <c r="H350" s="30"/>
       <c r="K350" s="21" t="s">
         <v>1012</v>
       </c>
@@ -32465,7 +32459,6 @@
       <c r="G351" s="30" t="s">
         <v>1015</v>
       </c>
-      <c r="H351" s="30"/>
       <c r="K351" s="21" t="s">
         <v>1016</v>
       </c>
@@ -32537,7 +32530,6 @@
       <c r="G352" s="30" t="s">
         <v>1019</v>
       </c>
-      <c r="H352" s="30"/>
       <c r="K352" s="21" t="s">
         <v>1020</v>
       </c>
@@ -47619,7 +47611,6 @@
       <c r="G580" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="H580" s="30"/>
       <c r="J580" s="30" t="s">
         <v>1522</v>
       </c>
@@ -49701,7 +49692,6 @@
       <c r="G611" s="30" t="s">
         <v>1580</v>
       </c>
-      <c r="H611" s="30"/>
       <c r="K611" s="28" t="s">
         <v>1581</v>
       </c>
@@ -49764,7 +49754,6 @@
       <c r="G612" s="30" t="s">
         <v>1580</v>
       </c>
-      <c r="H612" s="30"/>
       <c r="K612" s="28" t="s">
         <v>1584</v>
       </c>
@@ -49827,7 +49816,6 @@
       <c r="G613" s="30" t="s">
         <v>1580</v>
       </c>
-      <c r="H613" s="30"/>
       <c r="K613" s="28" t="s">
         <v>1586</v>
       </c>
@@ -49890,7 +49878,6 @@
       <c r="G614" s="30" t="s">
         <v>1580</v>
       </c>
-      <c r="H614" s="30"/>
       <c r="K614" s="28" t="s">
         <v>1588</v>
       </c>
@@ -49953,7 +49940,6 @@
       <c r="G615" s="30" t="s">
         <v>1580</v>
       </c>
-      <c r="H615" s="30"/>
       <c r="K615" s="28" t="s">
         <v>1590</v>
       </c>
@@ -50016,7 +50002,6 @@
       <c r="G616" s="30" t="s">
         <v>1580</v>
       </c>
-      <c r="H616" s="30"/>
       <c r="K616" s="28" t="s">
         <v>1592</v>
       </c>
@@ -50079,7 +50064,6 @@
       <c r="G617" s="30" t="s">
         <v>1594</v>
       </c>
-      <c r="H617" s="30"/>
       <c r="K617" s="30" t="s">
         <v>1346</v>
       </c>
@@ -50145,7 +50129,6 @@
       <c r="G618" s="30" t="s">
         <v>1594</v>
       </c>
-      <c r="H618" s="30"/>
       <c r="K618" s="30" t="s">
         <v>1346</v>
       </c>
@@ -50214,7 +50197,6 @@
       <c r="G619" s="30" t="s">
         <v>1595</v>
       </c>
-      <c r="H619" s="30"/>
       <c r="I619"/>
       <c r="J619" s="28" t="s">
         <v>1596</v>
@@ -51177,7 +51159,6 @@
       <c r="G620" s="30" t="s">
         <v>1595</v>
       </c>
-      <c r="H620" s="30"/>
       <c r="I620"/>
       <c r="J620" s="28" t="s">
         <v>1596</v>
@@ -52140,7 +52121,6 @@
       <c r="G621" s="30" t="s">
         <v>1595</v>
       </c>
-      <c r="H621" s="30"/>
       <c r="I621"/>
       <c r="J621" s="28" t="s">
         <v>1596</v>
@@ -53103,7 +53083,6 @@
       <c r="G622" s="30" t="s">
         <v>1595</v>
       </c>
-      <c r="H622" s="30"/>
       <c r="I622"/>
       <c r="J622" s="28" t="s">
         <v>1561</v>
@@ -54066,7 +54045,6 @@
       <c r="G623" s="30" t="s">
         <v>1595</v>
       </c>
-      <c r="H623" s="30"/>
       <c r="I623"/>
       <c r="J623" s="28" t="s">
         <v>1561</v>
@@ -55029,7 +55007,6 @@
       <c r="G624" s="30" t="s">
         <v>1595</v>
       </c>
-      <c r="H624" s="30"/>
       <c r="I624"/>
       <c r="J624" s="28" t="s">
         <v>1561</v>
@@ -55992,7 +55969,6 @@
       <c r="G625" s="30" t="s">
         <v>1595</v>
       </c>
-      <c r="H625" s="30"/>
       <c r="I625"/>
       <c r="J625" s="28" t="s">
         <v>1450</v>
@@ -56955,7 +56931,6 @@
       <c r="G626" s="30" t="s">
         <v>1595</v>
       </c>
-      <c r="H626" s="30"/>
       <c r="I626"/>
       <c r="J626" s="28" t="s">
         <v>1450</v>
@@ -57918,7 +57893,6 @@
       <c r="G627" s="30" t="s">
         <v>1595</v>
       </c>
-      <c r="H627" s="30"/>
       <c r="I627"/>
       <c r="J627" s="28" t="s">
         <v>1450</v>
@@ -58878,7 +58852,6 @@
       <c r="G628" s="30" t="s">
         <v>1116</v>
       </c>
-      <c r="H628" s="30"/>
       <c r="K628" s="30" t="s">
         <v>1615</v>
       </c>
@@ -58941,7 +58914,6 @@
       <c r="G629" s="30" t="s">
         <v>1120</v>
       </c>
-      <c r="H629" s="30"/>
       <c r="K629" s="30" t="s">
         <v>1617</v>
       </c>
@@ -59004,7 +58976,6 @@
       <c r="G630" s="30" t="s">
         <v>1123</v>
       </c>
-      <c r="H630" s="30"/>
       <c r="K630" s="30" t="s">
         <v>1618</v>
       </c>
@@ -59067,7 +59038,6 @@
       <c r="G631" s="30" t="s">
         <v>1127</v>
       </c>
-      <c r="H631" s="30"/>
       <c r="K631" s="30" t="s">
         <v>1620</v>
       </c>
@@ -59130,7 +59100,6 @@
       <c r="G632" s="30" t="s">
         <v>1130</v>
       </c>
-      <c r="H632" s="30"/>
       <c r="K632" s="30" t="s">
         <v>1621</v>
       </c>
@@ -59193,7 +59162,6 @@
       <c r="G633" s="30" t="s">
         <v>1133</v>
       </c>
-      <c r="H633" s="30"/>
       <c r="K633" s="30" t="s">
         <v>1622</v>
       </c>
@@ -59256,7 +59224,6 @@
       <c r="G634" s="30" t="s">
         <v>1137</v>
       </c>
-      <c r="H634" s="30"/>
       <c r="K634" s="30" t="s">
         <v>1624</v>
       </c>
@@ -59319,7 +59286,6 @@
       <c r="G635" s="30" t="s">
         <v>1625</v>
       </c>
-      <c r="H635" s="30"/>
       <c r="J635" s="28" t="s">
         <v>1547</v>
       </c>
@@ -59388,7 +59354,6 @@
       <c r="G636" s="30" t="s">
         <v>1625</v>
       </c>
-      <c r="H636" s="30"/>
       <c r="J636" s="28" t="s">
         <v>1547</v>
       </c>
@@ -59457,7 +59422,6 @@
       <c r="G637" s="30" t="s">
         <v>1625</v>
       </c>
-      <c r="H637" s="30"/>
       <c r="J637" s="28" t="s">
         <v>1547</v>
       </c>
@@ -59526,7 +59490,6 @@
       <c r="G638" s="30" t="s">
         <v>1625</v>
       </c>
-      <c r="H638" s="30"/>
       <c r="J638" s="28" t="s">
         <v>1554</v>
       </c>
@@ -59595,7 +59558,6 @@
       <c r="G639" s="30" t="s">
         <v>1625</v>
       </c>
-      <c r="H639" s="30"/>
       <c r="J639" s="28" t="s">
         <v>1554</v>
       </c>
@@ -59664,7 +59626,6 @@
       <c r="G640" s="30" t="s">
         <v>1625</v>
       </c>
-      <c r="H640" s="30"/>
       <c r="J640" s="28" t="s">
         <v>1554</v>
       </c>
@@ -59733,7 +59694,6 @@
       <c r="G641" s="30" t="s">
         <v>1625</v>
       </c>
-      <c r="H641" s="30"/>
       <c r="J641" s="28" t="s">
         <v>1561</v>
       </c>
@@ -59802,7 +59762,6 @@
       <c r="G642" s="30" t="s">
         <v>1625</v>
       </c>
-      <c r="H642" s="30"/>
       <c r="J642" s="28" t="s">
         <v>1561</v>
       </c>
@@ -59871,7 +59830,6 @@
       <c r="G643" s="30" t="s">
         <v>1625</v>
       </c>
-      <c r="H643" s="30"/>
       <c r="J643" s="28" t="s">
         <v>1561</v>
       </c>
@@ -59940,7 +59898,6 @@
       <c r="G644" s="30" t="s">
         <v>1625</v>
       </c>
-      <c r="H644" s="30"/>
       <c r="J644" s="28" t="s">
         <v>1450</v>
       </c>
@@ -60009,7 +59966,6 @@
       <c r="G645" s="30" t="s">
         <v>1625</v>
       </c>
-      <c r="H645" s="30"/>
       <c r="J645" s="28" t="s">
         <v>1450</v>
       </c>
@@ -60078,7 +60034,6 @@
       <c r="G646" s="30" t="s">
         <v>1625</v>
       </c>
-      <c r="H646" s="30"/>
       <c r="J646" s="28" t="s">
         <v>1450</v>
       </c>
@@ -60271,7 +60226,6 @@
       <c r="G649" s="30" t="s">
         <v>1395</v>
       </c>
-      <c r="H649" s="30"/>
       <c r="K649" s="28" t="s">
         <v>1581</v>
       </c>
@@ -60334,7 +60288,6 @@
       <c r="G650" s="30" t="s">
         <v>1395</v>
       </c>
-      <c r="H650" s="30"/>
       <c r="K650" s="28" t="s">
         <v>1584</v>
       </c>
@@ -60397,7 +60350,6 @@
       <c r="G651" s="30" t="s">
         <v>1395</v>
       </c>
-      <c r="H651" s="30"/>
       <c r="K651" s="28" t="s">
         <v>1586</v>
       </c>
@@ -60460,7 +60412,6 @@
       <c r="G652" s="30" t="s">
         <v>1395</v>
       </c>
-      <c r="H652" s="30"/>
       <c r="K652" s="28" t="s">
         <v>1588</v>
       </c>
@@ -60523,7 +60474,6 @@
       <c r="G653" s="30" t="s">
         <v>1395</v>
       </c>
-      <c r="H653" s="30"/>
       <c r="K653" s="28" t="s">
         <v>1590</v>
       </c>
@@ -60586,7 +60536,6 @@
       <c r="G654" s="30" t="s">
         <v>1395</v>
       </c>
-      <c r="H654" s="30"/>
       <c r="K654" s="28" t="s">
         <v>1592</v>
       </c>
@@ -60649,7 +60598,6 @@
       <c r="G655" s="30" t="s">
         <v>1116</v>
       </c>
-      <c r="H655" s="30"/>
       <c r="K655" s="30" t="s">
         <v>1615</v>
       </c>
@@ -60712,7 +60660,6 @@
       <c r="G656" s="30" t="s">
         <v>1120</v>
       </c>
-      <c r="H656" s="30"/>
       <c r="K656" s="30" t="s">
         <v>1617</v>
       </c>
@@ -60775,7 +60722,6 @@
       <c r="G657" s="30" t="s">
         <v>1123</v>
       </c>
-      <c r="H657" s="30"/>
       <c r="K657" s="30" t="s">
         <v>1618</v>
       </c>
@@ -60838,7 +60784,6 @@
       <c r="G658" s="30" t="s">
         <v>1127</v>
       </c>
-      <c r="H658" s="30"/>
       <c r="K658" s="30" t="s">
         <v>1620</v>
       </c>
@@ -60901,7 +60846,6 @@
       <c r="G659" s="30" t="s">
         <v>1130</v>
       </c>
-      <c r="H659" s="30"/>
       <c r="K659" s="30" t="s">
         <v>1621</v>
       </c>
@@ -60964,7 +60908,6 @@
       <c r="G660" s="30" t="s">
         <v>1133</v>
       </c>
-      <c r="H660" s="30"/>
       <c r="K660" s="30" t="s">
         <v>1622</v>
       </c>
@@ -61027,7 +60970,6 @@
       <c r="G661" s="30" t="s">
         <v>1137</v>
       </c>
-      <c r="H661" s="30"/>
       <c r="K661" s="30" t="s">
         <v>1624</v>
       </c>
@@ -62532,22 +62474,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="1:40">
+    <row r="683" customFormat="1" ht="14.25" spans="1:41">
       <c r="A683" s="21">
         <v>682</v>
       </c>
       <c r="B683" s="30">
         <v>10599</v>
       </c>
+      <c r="C683" s="30"/>
+      <c r="D683" s="30"/>
+      <c r="E683" s="21"/>
       <c r="F683" s="21">
         <v>1</v>
       </c>
       <c r="G683" s="30" t="s">
         <v>1656</v>
       </c>
+      <c r="H683" s="30"/>
+      <c r="I683" s="30"/>
+      <c r="J683" s="30"/>
       <c r="K683" s="28" t="s">
         <v>1581</v>
       </c>
+      <c r="L683" s="30"/>
       <c r="M683" s="28">
         <v>-31</v>
       </c>
@@ -62564,11 +62513,15 @@
         <v>49800</v>
       </c>
       <c r="R683" s="28" t="s">
-        <v>1582</v>
+        <v>1657</v>
       </c>
       <c r="S683" s="54" t="s">
         <v>1583</v>
       </c>
+      <c r="T683" s="30"/>
+      <c r="U683" s="30"/>
+      <c r="V683" s="30"/>
+      <c r="W683" s="30"/>
       <c r="X683" s="21" t="s">
         <v>1311</v>
       </c>
@@ -62584,35 +62537,51 @@
       <c r="AB683" s="30">
         <v>69</v>
       </c>
+      <c r="AC683" s="30"/>
+      <c r="AD683" s="30"/>
+      <c r="AE683" s="30"/>
+      <c r="AF683" s="30"/>
+      <c r="AG683" s="30"/>
+      <c r="AH683" s="30"/>
       <c r="AI683" s="30">
         <v>1</v>
       </c>
       <c r="AJ683" s="30">
         <v>1</v>
       </c>
+      <c r="AK683" s="30"/>
+      <c r="AL683" s="30"/>
       <c r="AM683" s="30">
         <v>1</v>
       </c>
       <c r="AN683" s="30">
         <v>1</v>
       </c>
-    </row>
-    <row r="684" spans="1:40">
+      <c r="AO683" s="30"/>
+    </row>
+    <row r="684" customFormat="1" ht="14.25" spans="1:41">
       <c r="A684" s="21">
         <v>683</v>
       </c>
       <c r="B684" s="30">
         <v>10600</v>
       </c>
+      <c r="C684" s="30"/>
+      <c r="D684" s="30"/>
+      <c r="E684" s="21"/>
       <c r="F684" s="21">
         <v>1</v>
       </c>
       <c r="G684" s="30" t="s">
         <v>1656</v>
       </c>
+      <c r="H684" s="30"/>
+      <c r="I684" s="30"/>
+      <c r="J684" s="30"/>
       <c r="K684" s="28" t="s">
         <v>1584</v>
       </c>
+      <c r="L684" s="30"/>
       <c r="M684" s="28">
         <v>-31</v>
       </c>
@@ -62629,11 +62598,15 @@
         <v>19800</v>
       </c>
       <c r="R684" s="28" t="s">
-        <v>1582</v>
+        <v>1657</v>
       </c>
       <c r="S684" s="54" t="s">
         <v>1585</v>
       </c>
+      <c r="T684" s="30"/>
+      <c r="U684" s="30"/>
+      <c r="V684" s="30"/>
+      <c r="W684" s="30"/>
       <c r="X684" s="21" t="s">
         <v>1311</v>
       </c>
@@ -62649,35 +62622,51 @@
       <c r="AB684" s="30">
         <v>69</v>
       </c>
+      <c r="AC684" s="30"/>
+      <c r="AD684" s="30"/>
+      <c r="AE684" s="30"/>
+      <c r="AF684" s="30"/>
+      <c r="AG684" s="30"/>
+      <c r="AH684" s="30"/>
       <c r="AI684" s="30">
         <v>1</v>
       </c>
       <c r="AJ684" s="30">
         <v>1</v>
       </c>
+      <c r="AK684" s="30"/>
+      <c r="AL684" s="30"/>
       <c r="AM684" s="30">
         <v>1</v>
       </c>
       <c r="AN684" s="30">
         <v>1</v>
       </c>
-    </row>
-    <row r="685" spans="1:40">
+      <c r="AO684" s="30"/>
+    </row>
+    <row r="685" customFormat="1" ht="14.25" spans="1:41">
       <c r="A685" s="21">
         <v>684</v>
       </c>
       <c r="B685" s="30">
         <v>10601</v>
       </c>
+      <c r="C685" s="30"/>
+      <c r="D685" s="30"/>
+      <c r="E685" s="21"/>
       <c r="F685" s="21">
         <v>1</v>
       </c>
       <c r="G685" s="30" t="s">
         <v>1656</v>
       </c>
+      <c r="H685" s="30"/>
+      <c r="I685" s="30"/>
+      <c r="J685" s="30"/>
       <c r="K685" s="28" t="s">
         <v>1586</v>
       </c>
+      <c r="L685" s="30"/>
       <c r="M685" s="28">
         <v>-31</v>
       </c>
@@ -62694,11 +62683,15 @@
         <v>9800</v>
       </c>
       <c r="R685" s="28" t="s">
-        <v>1582</v>
+        <v>1657</v>
       </c>
       <c r="S685" s="54" t="s">
         <v>1587</v>
       </c>
+      <c r="T685" s="30"/>
+      <c r="U685" s="30"/>
+      <c r="V685" s="30"/>
+      <c r="W685" s="30"/>
       <c r="X685" s="21" t="s">
         <v>1311</v>
       </c>
@@ -62714,35 +62707,51 @@
       <c r="AB685" s="30">
         <v>69</v>
       </c>
+      <c r="AC685" s="30"/>
+      <c r="AD685" s="30"/>
+      <c r="AE685" s="30"/>
+      <c r="AF685" s="30"/>
+      <c r="AG685" s="30"/>
+      <c r="AH685" s="30"/>
       <c r="AI685" s="30">
         <v>1</v>
       </c>
       <c r="AJ685" s="30">
         <v>1</v>
       </c>
+      <c r="AK685" s="30"/>
+      <c r="AL685" s="30"/>
       <c r="AM685" s="30">
         <v>1</v>
       </c>
       <c r="AN685" s="30">
         <v>1</v>
       </c>
-    </row>
-    <row r="686" spans="1:40">
+      <c r="AO685" s="30"/>
+    </row>
+    <row r="686" customFormat="1" ht="14.25" spans="1:41">
       <c r="A686" s="21">
         <v>685</v>
       </c>
       <c r="B686" s="30">
         <v>10602</v>
       </c>
+      <c r="C686" s="30"/>
+      <c r="D686" s="30"/>
+      <c r="E686" s="21"/>
       <c r="F686" s="21">
         <v>1</v>
       </c>
       <c r="G686" s="30" t="s">
         <v>1656</v>
       </c>
+      <c r="H686" s="30"/>
+      <c r="I686" s="30"/>
+      <c r="J686" s="30"/>
       <c r="K686" s="28" t="s">
         <v>1588</v>
       </c>
+      <c r="L686" s="30"/>
       <c r="M686" s="28">
         <v>-31</v>
       </c>
@@ -62759,11 +62768,15 @@
         <v>4800</v>
       </c>
       <c r="R686" s="28" t="s">
-        <v>1582</v>
+        <v>1657</v>
       </c>
       <c r="S686" s="54" t="s">
         <v>1589</v>
       </c>
+      <c r="T686" s="30"/>
+      <c r="U686" s="30"/>
+      <c r="V686" s="30"/>
+      <c r="W686" s="30"/>
       <c r="X686" s="21" t="s">
         <v>1311</v>
       </c>
@@ -62779,35 +62792,51 @@
       <c r="AB686" s="30">
         <v>69</v>
       </c>
+      <c r="AC686" s="30"/>
+      <c r="AD686" s="30"/>
+      <c r="AE686" s="30"/>
+      <c r="AF686" s="30"/>
+      <c r="AG686" s="30"/>
+      <c r="AH686" s="30"/>
       <c r="AI686" s="30">
         <v>1</v>
       </c>
       <c r="AJ686" s="30">
         <v>1</v>
       </c>
+      <c r="AK686" s="30"/>
+      <c r="AL686" s="30"/>
       <c r="AM686" s="30">
         <v>1</v>
       </c>
       <c r="AN686" s="30">
         <v>1</v>
       </c>
-    </row>
-    <row r="687" spans="1:40">
+      <c r="AO686" s="30"/>
+    </row>
+    <row r="687" customFormat="1" ht="14.25" spans="1:41">
       <c r="A687" s="21">
         <v>686</v>
       </c>
       <c r="B687" s="30">
         <v>10603</v>
       </c>
+      <c r="C687" s="30"/>
+      <c r="D687" s="30"/>
+      <c r="E687" s="21"/>
       <c r="F687" s="21">
         <v>1</v>
       </c>
       <c r="G687" s="30" t="s">
         <v>1656</v>
       </c>
+      <c r="H687" s="30"/>
+      <c r="I687" s="30"/>
+      <c r="J687" s="30"/>
       <c r="K687" s="28" t="s">
         <v>1590</v>
       </c>
+      <c r="L687" s="30"/>
       <c r="M687" s="28">
         <v>-31</v>
       </c>
@@ -62824,11 +62853,15 @@
         <v>2000</v>
       </c>
       <c r="R687" s="28" t="s">
-        <v>1582</v>
+        <v>1657</v>
       </c>
       <c r="S687" s="54" t="s">
         <v>1591</v>
       </c>
+      <c r="T687" s="30"/>
+      <c r="U687" s="30"/>
+      <c r="V687" s="30"/>
+      <c r="W687" s="30"/>
       <c r="X687" s="21" t="s">
         <v>1311</v>
       </c>
@@ -62844,35 +62877,51 @@
       <c r="AB687" s="30">
         <v>69</v>
       </c>
+      <c r="AC687" s="30"/>
+      <c r="AD687" s="30"/>
+      <c r="AE687" s="30"/>
+      <c r="AF687" s="30"/>
+      <c r="AG687" s="30"/>
+      <c r="AH687" s="30"/>
       <c r="AI687" s="30">
         <v>1</v>
       </c>
       <c r="AJ687" s="30">
         <v>1</v>
       </c>
+      <c r="AK687" s="30"/>
+      <c r="AL687" s="30"/>
       <c r="AM687" s="30">
         <v>1</v>
       </c>
       <c r="AN687" s="30">
         <v>1</v>
       </c>
-    </row>
-    <row r="688" spans="1:40">
+      <c r="AO687" s="30"/>
+    </row>
+    <row r="688" customFormat="1" ht="14.25" spans="1:41">
       <c r="A688" s="21">
         <v>687</v>
       </c>
       <c r="B688" s="30">
         <v>10604</v>
       </c>
+      <c r="C688" s="30"/>
+      <c r="D688" s="30"/>
+      <c r="E688" s="21"/>
       <c r="F688" s="21">
         <v>1</v>
       </c>
       <c r="G688" s="30" t="s">
         <v>1656</v>
       </c>
+      <c r="H688" s="30"/>
+      <c r="I688" s="30"/>
+      <c r="J688" s="30"/>
       <c r="K688" s="28" t="s">
         <v>1592</v>
       </c>
+      <c r="L688" s="30"/>
       <c r="M688" s="28">
         <v>-31</v>
       </c>
@@ -62889,11 +62938,15 @@
         <v>600</v>
       </c>
       <c r="R688" s="28" t="s">
-        <v>1582</v>
+        <v>1657</v>
       </c>
       <c r="S688" s="54" t="s">
         <v>1593</v>
       </c>
+      <c r="T688" s="30"/>
+      <c r="U688" s="30"/>
+      <c r="V688" s="30"/>
+      <c r="W688" s="30"/>
       <c r="X688" s="21" t="s">
         <v>1311</v>
       </c>
@@ -62909,18 +62962,27 @@
       <c r="AB688" s="30">
         <v>69</v>
       </c>
+      <c r="AC688" s="30"/>
+      <c r="AD688" s="30"/>
+      <c r="AE688" s="30"/>
+      <c r="AF688" s="30"/>
+      <c r="AG688" s="30"/>
+      <c r="AH688" s="30"/>
       <c r="AI688" s="30">
         <v>1</v>
       </c>
       <c r="AJ688" s="30">
         <v>1</v>
       </c>
+      <c r="AK688" s="30"/>
+      <c r="AL688" s="30"/>
       <c r="AM688" s="30">
         <v>1</v>
       </c>
       <c r="AN688" s="30">
         <v>1</v>
       </c>
+      <c r="AO688" s="30"/>
     </row>
     <row r="689" spans="1:40">
       <c r="A689" s="21">
@@ -62933,10 +62995,10 @@
         <v>0</v>
       </c>
       <c r="G689" s="30" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="K689" s="28" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="M689" s="28">
         <v>-31</v>
@@ -62998,10 +63060,10 @@
         <v>0</v>
       </c>
       <c r="G690" s="30" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="K690" s="28" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="M690" s="28">
         <v>-31</v>
@@ -63063,10 +63125,10 @@
         <v>0</v>
       </c>
       <c r="G691" s="30" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="K691" s="28" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="M691" s="28">
         <v>-31</v>
@@ -63128,10 +63190,10 @@
         <v>0</v>
       </c>
       <c r="G692" s="30" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="K692" s="28" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="M692" s="28">
         <v>-31</v>
@@ -63193,10 +63255,10 @@
         <v>0</v>
       </c>
       <c r="G693" s="30" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="K693" s="28" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="M693" s="28">
         <v>-31</v>
@@ -63258,10 +63320,10 @@
         <v>0</v>
       </c>
       <c r="G694" s="30" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="K694" s="28" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="M694" s="28">
         <v>-31</v>
@@ -63338,19 +63400,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="58.5" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="2" ht="57.75" customHeight="1" spans="1:5">
@@ -63358,7 +63420,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -63367,7 +63429,7 @@
         <v>3600</v>
       </c>
       <c r="E2" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="3" ht="78.75" customHeight="1" spans="1:4">
@@ -63375,7 +63437,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -63389,7 +63451,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -63403,7 +63465,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -63417,7 +63479,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -63431,7 +63493,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -63445,7 +63507,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -63459,7 +63521,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -63473,7 +63535,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -63487,7 +63549,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -63501,7 +63563,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -63515,7 +63577,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -63529,7 +63591,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -63543,7 +63605,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -63557,7 +63619,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -63571,7 +63633,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -63585,7 +63647,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -63599,7 +63661,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -63613,7 +63675,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
@@ -63627,7 +63689,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="C21" s="4">
         <v>1</v>
@@ -63641,7 +63703,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
@@ -63655,7 +63717,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
@@ -63669,7 +63731,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="C24" s="4">
         <v>1</v>
@@ -63683,7 +63745,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="C25" s="4">
         <v>1</v>
@@ -63697,7 +63759,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -63711,7 +63773,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -63725,7 +63787,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -63739,7 +63801,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -63753,7 +63815,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -63767,7 +63829,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -63781,7 +63843,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -63795,7 +63857,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -63809,7 +63871,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -63823,7 +63885,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -63837,7 +63899,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -63851,7 +63913,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -63865,7 +63927,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -63879,7 +63941,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -63893,7 +63955,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -63907,7 +63969,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -63921,7 +63983,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -63935,7 +63997,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -63949,7 +64011,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -63963,7 +64025,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -63977,7 +64039,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -63991,7 +64053,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -64005,7 +64067,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
@@ -64019,7 +64081,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
@@ -64033,7 +64095,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
@@ -64047,7 +64109,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
@@ -64061,7 +64123,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
@@ -64075,7 +64137,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
@@ -64089,7 +64151,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="C54" s="2">
         <v>1</v>
@@ -64103,7 +64165,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
@@ -64117,7 +64179,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
@@ -64131,7 +64193,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
@@ -64145,7 +64207,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
@@ -64159,7 +64221,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -64173,7 +64235,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
@@ -64187,7 +64249,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -64201,7 +64263,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
@@ -64215,7 +64277,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
@@ -64229,7 +64291,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="C64" s="2">
         <v>1</v>
@@ -64243,7 +64305,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
@@ -64257,7 +64319,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="C66" s="2">
         <v>1</v>
@@ -64271,7 +64333,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
@@ -64285,7 +64347,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="C68" s="2">
         <v>1</v>
@@ -64299,7 +64361,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="C69" s="2">
         <v>1</v>
@@ -64313,7 +64375,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -64327,7 +64389,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="C71" s="19">
         <v>1</v>
@@ -64341,7 +64403,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="C72" s="19">
         <v>1</v>
@@ -64355,7 +64417,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="C73" s="19">
         <v>1</v>
@@ -64369,7 +64431,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="C74" s="19">
         <v>1</v>
@@ -64383,7 +64445,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="C75" s="19">
         <v>1</v>
@@ -64397,7 +64459,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="C76" s="19">
         <v>1</v>
@@ -64411,7 +64473,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="C77" s="19">
         <v>1</v>
@@ -64425,7 +64487,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="C78" s="19">
         <v>1</v>
@@ -64439,7 +64501,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="C79" s="19">
         <v>1</v>
@@ -64453,7 +64515,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="C80" s="19">
         <v>1</v>
@@ -64467,7 +64529,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="C81" s="2">
         <v>1</v>
@@ -64481,7 +64543,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="C82" s="2">
         <v>1</v>
@@ -64495,7 +64557,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="C83" s="2">
         <v>1</v>
@@ -64509,7 +64571,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="C84" s="2">
         <v>1</v>
@@ -64523,7 +64585,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -64575,7 +64637,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="90" customHeight="1" spans="1:29">
       <c r="A1" s="1" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
@@ -64587,19 +64649,19 @@
         <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>31</v>
@@ -64614,7 +64676,7 @@
         <v>38</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>39</v>
@@ -64659,7 +64721,7 @@
         <v>52</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="1" spans="1:26">
@@ -64679,7 +64741,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="G2" s="12">
         <v>480</v>
@@ -64706,22 +64768,22 @@
         <v>3</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="T2" s="12" t="s">
         <v>61</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="V2" s="12" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="Y2" s="12">
         <v>1</v>
@@ -64747,7 +64809,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="G3" s="12">
         <v>1200</v>
@@ -64777,19 +64839,19 @@
         <v>127</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="T3" s="12" t="s">
         <v>66</v>
       </c>
       <c r="U3" s="15" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="Y3" s="12">
         <v>1</v>
@@ -64815,7 +64877,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="G4" s="12">
         <v>2400</v>
@@ -64842,22 +64904,22 @@
         <v>5</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="T4" s="12" t="s">
         <v>70</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="Y4" s="12">
         <v>1</v>
@@ -64883,7 +64945,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="G5" s="12">
         <v>4000</v>
@@ -64910,22 +64972,22 @@
         <v>6</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="T5" s="12" t="s">
         <v>74</v>
       </c>
       <c r="U5" s="15" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="V5" s="12" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="Y5" s="12">
         <v>1</v>
@@ -64951,7 +65013,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="G6" s="12">
         <v>7840</v>
@@ -64978,22 +65040,22 @@
         <v>7</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="T6" s="12" t="s">
         <v>78</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="Y6" s="12">
         <v>1</v>
@@ -65019,7 +65081,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="G7" s="12">
         <v>39840</v>
@@ -65046,22 +65108,22 @@
         <v>9</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="S7" s="15" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="T7" s="12" t="s">
         <v>82</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="Y7" s="12">
         <v>1</v>
@@ -65084,7 +65146,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="G8" s="12">
         <v>120</v>
@@ -65111,22 +65173,22 @@
         <v>0</v>
       </c>
       <c r="P8" s="15" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="Q8" s="15" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="S8" s="15" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="T8" s="12" t="s">
         <v>61</v>
       </c>
       <c r="U8" s="15" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="V8" s="12" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="Y8" s="12">
         <v>1</v>
@@ -65150,7 +65212,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="G9" s="13">
         <v>5000</v>
@@ -65178,10 +65240,10 @@
         <v>2</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
@@ -65189,10 +65251,10 @@
         <v>5000</v>
       </c>
       <c r="U9" s="13" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="V9" s="13" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
@@ -65205,7 +65267,7 @@
       <c r="AA9" s="13"/>
       <c r="AB9" s="13"/>
       <c r="AC9" s="16" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="10" s="12" customFormat="1" spans="1:29">
@@ -65223,7 +65285,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="G10" s="13">
         <v>1000</v>
@@ -65251,10 +65313,10 @@
         <v>1</v>
       </c>
       <c r="P10" s="16" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="Q10" s="16" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
@@ -65262,10 +65324,10 @@
         <v>1000</v>
       </c>
       <c r="U10" s="13" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="V10" s="13" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
@@ -65278,7 +65340,7 @@
       <c r="AA10" s="13"/>
       <c r="AB10" s="13"/>
       <c r="AC10" s="16" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="11" s="12" customFormat="1" spans="1:26">
@@ -65295,7 +65357,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="G11" s="12">
         <v>1200</v>
@@ -65325,19 +65387,19 @@
         <v>127</v>
       </c>
       <c r="Q11" s="15" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="S11" s="15" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="T11" s="15" t="s">
         <v>66</v>
       </c>
       <c r="U11" s="12" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="Y11" s="12">
         <v>1</v>
@@ -65363,7 +65425,7 @@
         <v>107</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="G12" s="12">
         <v>120000</v>
@@ -65390,22 +65452,22 @@
         <v>9</v>
       </c>
       <c r="P12" s="15" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="Q12" s="15" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="S12" s="15" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="T12" s="12" t="s">
         <v>86</v>
       </c>
       <c r="U12" s="12" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="Y12" s="12">
         <v>1</v>
@@ -65431,7 +65493,7 @@
         <v>108</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="G13" s="12">
         <v>79840</v>
@@ -65458,22 +65520,22 @@
         <v>10</v>
       </c>
       <c r="P13" s="15" t="s">
+        <v>1793</v>
+      </c>
+      <c r="Q13" s="15" t="s">
+        <v>1794</v>
+      </c>
+      <c r="S13" s="15" t="s">
+        <v>1764</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>1795</v>
+      </c>
+      <c r="U13" s="12" t="s">
         <v>1792</v>
       </c>
-      <c r="Q13" s="15" t="s">
-        <v>1793</v>
-      </c>
-      <c r="S13" s="15" t="s">
-        <v>1763</v>
-      </c>
-      <c r="T13" s="12" t="s">
-        <v>1794</v>
-      </c>
-      <c r="U13" s="12" t="s">
-        <v>1791</v>
-      </c>
       <c r="V13" s="12" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="Y13" s="12">
         <v>1</v>
@@ -65499,7 +65561,7 @@
         <v>110</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="G14" s="12">
         <v>199840</v>
@@ -65526,22 +65588,22 @@
         <v>11</v>
       </c>
       <c r="P14" s="15" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="Q14" s="15" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="S14" s="15" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="Y14" s="12">
         <v>1</v>
@@ -65565,7 +65627,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="G15" s="13">
         <v>100</v>
@@ -65595,10 +65657,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="16" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="Q15" s="16" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="R15" s="13"/>
       <c r="S15" s="16"/>
@@ -65606,10 +65668,10 @@
         <v>100</v>
       </c>
       <c r="U15" s="16" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="V15" s="13" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
@@ -65622,7 +65684,7 @@
       <c r="AA15" s="13"/>
       <c r="AB15" s="13"/>
       <c r="AC15" s="16" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="16" s="12" customFormat="1" spans="1:26">
@@ -65642,7 +65704,7 @@
         <v>101</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="G16" s="12">
         <v>2000</v>
@@ -65669,23 +65731,23 @@
         <v>3</v>
       </c>
       <c r="P16" s="15" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="Q16" s="15" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="R16" s="2"/>
       <c r="S16" s="15" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="T16" s="12" t="s">
         <v>101</v>
       </c>
       <c r="U16" s="15" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="V16" s="12" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -65710,7 +65772,7 @@
         <v>102</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="G17" s="12">
         <v>6700</v>
@@ -65737,23 +65799,23 @@
         <v>4</v>
       </c>
       <c r="P17" s="15" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="Q17" s="15" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="15" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="T17" s="12" t="s">
         <v>105</v>
       </c>
       <c r="U17" s="12" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -65778,7 +65840,7 @@
         <v>103</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="G18" s="12">
         <v>13200</v>
@@ -65805,23 +65867,23 @@
         <v>5</v>
       </c>
       <c r="P18" s="15" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="Q18" s="15" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="R18" s="2"/>
       <c r="S18" s="15" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="T18" s="12" t="s">
         <v>109</v>
       </c>
       <c r="U18" s="12" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -65846,7 +65908,7 @@
         <v>104</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="G19" s="12">
         <v>20400</v>
@@ -65873,23 +65935,23 @@
         <v>6</v>
       </c>
       <c r="P19" s="15" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="Q19" s="15" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="R19" s="2"/>
       <c r="S19" s="15" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="T19" s="12" t="s">
         <v>114</v>
       </c>
       <c r="U19" s="15" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="V19" s="12" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -65914,7 +65976,7 @@
         <v>105</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="G20" s="12">
         <v>66</v>
@@ -65941,22 +66003,22 @@
         <v>7</v>
       </c>
       <c r="P20" s="15" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="Q20" s="15" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="S20" s="15" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="T20" s="12" t="s">
         <v>120</v>
       </c>
       <c r="U20" s="12" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="Y20" s="12">
         <v>1</v>
@@ -65980,7 +66042,7 @@
         <v>101</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="G21" s="12">
         <v>200</v>
@@ -66011,20 +66073,20 @@
         <v>891</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="R21" s="12"/>
       <c r="S21" s="15" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="T21" s="12" t="s">
         <v>124</v>
       </c>
       <c r="U21" s="15" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="V21" s="12" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="W21" s="12"/>
       <c r="X21" s="12"/>
@@ -66053,7 +66115,7 @@
         <v>104</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="G22" s="13">
         <v>5000</v>
@@ -66081,10 +66143,10 @@
         <v>2</v>
       </c>
       <c r="P22" s="16" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="Q22" s="16" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="R22" s="13"/>
       <c r="S22" s="16"/>
@@ -66092,10 +66154,10 @@
         <v>5000</v>
       </c>
       <c r="U22" s="16" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="V22" s="13" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="W22" s="13"/>
       <c r="X22" s="13"/>
@@ -66124,7 +66186,7 @@
         <v>102</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="G23" s="13">
         <v>1000</v>
@@ -66152,10 +66214,10 @@
         <v>1</v>
       </c>
       <c r="P23" s="16" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="Q23" s="16" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="R23" s="13"/>
       <c r="S23" s="16"/>
@@ -66163,10 +66225,10 @@
         <v>1000</v>
       </c>
       <c r="U23" s="16" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="V23" s="13" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="W23" s="13"/>
       <c r="X23" s="13"/>
@@ -66188,14 +66250,14 @@
         <v>109</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13">
         <v>101</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="G24" s="13">
         <v>100</v>
@@ -66225,10 +66287,10 @@
         <v>0</v>
       </c>
       <c r="P24" s="16" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="Q24" s="16" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="R24" s="13"/>
       <c r="S24" s="16"/>
@@ -66236,10 +66298,10 @@
         <v>100</v>
       </c>
       <c r="U24" s="16" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="V24" s="13" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="W24" s="13"/>
       <c r="X24" s="13"/>
@@ -66252,7 +66314,7 @@
       <c r="AA24" s="13"/>
       <c r="AB24" s="13"/>
       <c r="AC24" s="16" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="25" s="12" customFormat="1" spans="1:26">
@@ -66272,7 +66334,7 @@
         <v>111</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="G25" s="12">
         <v>15840</v>
@@ -66299,22 +66361,22 @@
         <v>8</v>
       </c>
       <c r="P25" s="15" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="Q25" s="15" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="S25" s="15" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="T25" s="15" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="U25" s="15" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="V25" s="12" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="Y25" s="12">
         <v>1</v>
@@ -66377,13 +66439,13 @@
         <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>31</v>
@@ -66395,16 +66457,16 @@
         <v>156</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>38</v>
@@ -66445,7 +66507,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -66457,7 +66519,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="L2" s="2">
         <v>54</v>
@@ -66466,7 +66528,7 @@
         <v>999999</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
@@ -66475,22 +66537,22 @@
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="T2" s="2">
         <v>60000</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:23">
@@ -66501,7 +66563,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -66513,7 +66575,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="L3" s="2">
         <v>54</v>
@@ -66522,7 +66584,7 @@
         <v>999999</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -66531,22 +66593,22 @@
         <v>2</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="T3" s="2">
         <v>500000</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="W3" s="2">
         <v>8.3</v>
@@ -66560,7 +66622,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -66585,19 +66647,19 @@
         <v>4</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="T4" s="2">
         <v>15000</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:22">
@@ -66608,7 +66670,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -66635,10 +66697,10 @@
         <v>100000</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:22">
@@ -66649,7 +66711,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
@@ -66676,10 +66738,10 @@
         <v>100000</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:23">
@@ -66690,7 +66752,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
@@ -66702,7 +66764,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L7" s="2">
         <v>56</v>
@@ -66711,7 +66773,7 @@
         <v>999999</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="O7" s="6">
         <v>0</v>
@@ -66720,22 +66782,22 @@
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="T7" s="2">
         <v>500000</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="W7" s="2">
         <v>8.3</v>
@@ -66749,10 +66811,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="F8" s="2">
         <v>100</v>
@@ -66764,7 +66826,7 @@
         <v>125</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="L8" s="2">
         <v>57</v>
@@ -66779,22 +66841,22 @@
         <v>5</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="T8" s="2">
         <v>100</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:22">
@@ -66805,10 +66867,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="F9" s="2">
         <v>1000</v>
@@ -66823,16 +66885,16 @@
         <v>6</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="T9" s="2">
         <v>1000</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:22">
@@ -66843,10 +66905,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="F10" s="2">
         <v>5800</v>
@@ -66861,16 +66923,16 @@
         <v>7</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="T10" s="2">
         <v>5800</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:22">
@@ -66881,10 +66943,10 @@
         <v>17</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="F11" s="2">
         <v>8800</v>
@@ -66899,16 +66961,16 @@
         <v>8</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="T11" s="2">
         <v>8800</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:22">
@@ -66919,10 +66981,10 @@
         <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="F12" s="2">
         <v>18800</v>
@@ -66937,16 +66999,16 @@
         <v>9</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="T12" s="2">
         <v>18800</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:23">
@@ -66957,7 +67019,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
@@ -66981,16 +67043,16 @@
         <v>0</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="T13" s="2">
         <v>70000</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="W13" s="2">
         <v>7</v>
@@ -67004,7 +67066,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
@@ -67028,16 +67090,16 @@
         <v>0</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="T14" s="2">
         <v>180000</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="W14" s="2">
         <v>6</v>
@@ -67051,10 +67113,10 @@
         <v>21</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="F15" s="2">
         <v>1500</v>
@@ -67075,16 +67137,16 @@
         <v>0</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="T15" s="2">
         <v>1500</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="W15" s="2">
         <v>3</v>
@@ -67098,10 +67160,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="F16" s="3">
         <v>200</v>
@@ -67117,13 +67179,13 @@
         <v>0</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="T16" s="3">
         <v>200</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:22">
@@ -67134,10 +67196,10 @@
         <v>23</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="F17" s="3">
         <v>2000</v>
@@ -67153,13 +67215,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="T17" s="3">
         <v>2000</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" spans="1:22">
@@ -67170,7 +67232,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>14</v>
@@ -67189,13 +67251,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="T18" s="3">
         <v>20000</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:22">
@@ -67206,7 +67268,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>14</v>
@@ -67225,13 +67287,13 @@
         <v>0</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="T19" s="3">
         <v>200000</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:22">
@@ -67242,7 +67304,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>14</v>
@@ -67260,16 +67322,16 @@
         <v>0</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="T20" s="4">
         <v>300000</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:22">
@@ -67280,7 +67342,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>14</v>
@@ -67298,16 +67360,16 @@
         <v>0</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="T21" s="4">
         <v>300000</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
   </sheetData>
